--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -149,13 +149,22 @@
     <t>来自各地的神秘力量，蕴含着天地之间的灵气，可帮助英雄突破自身的限制</t>
   </si>
   <si>
+    <t>改名卡</t>
+  </si>
+  <si>
+    <t>可以修改玩家昵称</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>没有钱是万万不能的</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>改名卡</t>
-  </si>
-  <si>
-    <t>可能修改玩家昵称</t>
+    <t>钻石</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1629,10 +1638,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>2004</v>
       </c>
@@ -1640,16 +1646,59 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>9998</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>9999</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/item.xlsx
+++ b/config/excel/item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -177,8 +177,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -330,12 +345,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -650,58 +677,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,75 +734,90 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1356,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1336,26 +1372,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1379,26 +1415,26 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>1005</v>
       </c>
@@ -1418,7 +1454,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>1006</v>
       </c>
@@ -1438,7 +1474,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>1007</v>
       </c>
@@ -1458,7 +1494,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>1008</v>
       </c>
@@ -1478,7 +1514,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>1009</v>
       </c>
@@ -1498,7 +1534,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>1010</v>
       </c>
@@ -1518,7 +1554,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>1011</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>1012</v>
       </c>
@@ -1558,7 +1594,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>1013</v>
       </c>
@@ -1578,7 +1614,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13">
         <v>2001</v>
       </c>
@@ -1598,7 +1634,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:7">
       <c r="B14">
         <v>2002</v>
       </c>
@@ -1618,7 +1654,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>2003</v>
       </c>
@@ -1638,7 +1674,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>2004</v>
       </c>
@@ -1658,7 +1694,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
       <c r="B17">
         <v>9998</v>
       </c>
@@ -1679,7 +1715,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B18">
